--- a/outputs-GTDB-r202/g__UBA1066.xlsx
+++ b/outputs-GTDB-r202/g__UBA1066.xlsx
@@ -1008,7 +1008,7 @@
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>s__UBA1066 sp900319795</t>
+          <t>s__UBA1066 sp900319795(reject)</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>s__UBA1066 sp900319795</t>
+          <t>s__UBA1066 sp900319795(reject)</t>
         </is>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>s__UBA1066 sp902773195</t>
+          <t>s__UBA1066 sp902773195(reject)</t>
         </is>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>s__UBA1066 sp900315305</t>
+          <t>s__UBA1066 sp900315305(reject)</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>s__UBA1066 sp900313955</t>
+          <t>s__UBA1066 sp900313955(reject)</t>
         </is>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>s__UBA1066 sp900319795</t>
+          <t>s__UBA1066 sp900319795(reject)</t>
         </is>
       </c>
     </row>
